--- a/basedatos.xlsx
+++ b/basedatos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GE73VR\Desktop\3º\econometria-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\universidad\21-22\Econometria\Practica\econometria-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E534893-601C-45DA-8709-5D9B24230112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Comunidad </t>
   </si>
@@ -122,16 +121,34 @@
   </si>
   <si>
     <t>Npobreza</t>
+  </si>
+  <si>
+    <t>DesvParo</t>
+  </si>
+  <si>
+    <t>Nparo</t>
+  </si>
+  <si>
+    <t>PromParo</t>
+  </si>
+  <si>
+    <t>PromLibros</t>
+  </si>
+  <si>
+    <t>DesvLibros</t>
+  </si>
+  <si>
+    <t>Nlibro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +202,12 @@
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -292,7 +315,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -322,14 +345,33 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Énfasis4" xfId="2" builtinId="42"/>
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{456E6B28-E7C7-48B3-98CF-333997978A72}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -444,10 +486,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Hoja1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+    <tableStyle name="Hoja1-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -462,32 +504,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B2:N20" headerRowCount="0">
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{30152ED2-A19A-4146-96F7-E18C6964834D}" name="Columna1" dataDxfId="8" dataCellStyle="20% - Énfasis4"/>
-    <tableColumn id="6" xr3:uid="{1093D8BA-9377-4F75-8373-DF8865FD317D}" name="Columna2" dataDxfId="7" dataCellStyle="20% - Énfasis4"/>
-    <tableColumn id="7" xr3:uid="{8ADD97F8-FD73-44E0-9277-12E48F05765E}" name="Columna3" dataDxfId="6" dataCellStyle="20% - Énfasis4"/>
-    <tableColumn id="8" xr3:uid="{5F4284B4-D3CE-462F-8ABE-B7621955F38D}" name="Columna4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="B2:T20" headerRowCount="0">
+  <tableColumns count="19">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2" dataDxfId="17"/>
+    <tableColumn id="3" name="Column3" dataDxfId="16"/>
+    <tableColumn id="4" name="Column4" dataDxfId="15"/>
+    <tableColumn id="5" name="Columna1" dataDxfId="14" dataCellStyle="20% - Énfasis4"/>
+    <tableColumn id="6" name="Columna2" dataDxfId="13" dataCellStyle="20% - Énfasis4"/>
+    <tableColumn id="7" name="Columna3" dataDxfId="12" dataCellStyle="20% - Énfasis4"/>
+    <tableColumn id="8" name="Columna4" dataDxfId="11">
       <calculatedColumnFormula>LOG10(F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6FE0CD41-E366-41A3-8559-46BF9605C8D6}" name="Columna5" dataDxfId="4">
+    <tableColumn id="9" name="Columna5" dataDxfId="10">
       <calculatedColumnFormula>LOG10(Table_1[[#This Row],[Column4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8EBA39AD-0440-481C-9A70-D89D10D4722E}" name="Columna6" dataDxfId="3">
+    <tableColumn id="10" name="Columna6" dataDxfId="9">
       <calculatedColumnFormula>LOG10(Table_1[[#This Row],[Column3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7170D9F4-75EC-482F-80D5-F071047DC453}" name="Columna7" dataDxfId="2">
+    <tableColumn id="11" name="Columna7" dataDxfId="8">
       <calculatedColumnFormula>AVERAGE(Table_1[[#All],[Columna1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{209F7BF8-D10B-4117-8757-F366C0A36B08}" name="Columna8" dataDxfId="0">
+    <tableColumn id="12" name="Columna8" dataDxfId="7">
       <calculatedColumnFormula>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BE2F74CD-7018-4387-B27A-D334E610BCB0}" name="Columna9" dataDxfId="1">
+    <tableColumn id="13" name="Columna9" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="Columna10" dataDxfId="5">
+      <calculatedColumnFormula>AVERAGE(Table_1[[#All],[Column4]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="Columna11" dataDxfId="4">
+      <calculatedColumnFormula>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Columna12" dataDxfId="3">
+      <calculatedColumnFormula>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="Columna13" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(Table_1[[#All],[Column3]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="Columna14" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="Columna15" dataDxfId="0">
+      <calculatedColumnFormula>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -500,20 +560,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -537,19 +597,79 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,15 +812,20 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N996"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -709,10 +834,15 @@
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="23" width="8" customWidth="1"/>
+    <col min="5" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="10.5" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,8 +879,26 @@
       <c r="M1" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="O1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -800,8 +948,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O2" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P2" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>1.2976956218658522</v>
+      </c>
+      <c r="R2" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S2" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T2" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>0.82862082472703436</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -851,8 +1023,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O3" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P3" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q3" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-0.79159602367897342</v>
+      </c>
+      <c r="R3" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S3" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T3" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.24776090599164324</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -902,8 +1098,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O4" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P4" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q4" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-0.21535071620204935</v>
+      </c>
+      <c r="R4" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S4" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T4" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.52940544932085765</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -953,8 +1173,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O5" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P5" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-1.2278040636964214</v>
+      </c>
+      <c r="R5" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S5" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T5" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.59825910000801141</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1004,8 +1248,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O6" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P6" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>0.78100639365330271</v>
+      </c>
+      <c r="R6" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S6" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T6" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.51809657359249606</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1055,8 +1323,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O7" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P7" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q7" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-0.93324291490235123</v>
+      </c>
+      <c r="R7" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S7" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T7" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.67278496116790787</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1398,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O8" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P8" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q8" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-0.5614198254409839</v>
+      </c>
+      <c r="R8" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S8" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T8" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>0.38549509289642886</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1157,8 +1473,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O9" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P9" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q9" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>0.30938663083001022</v>
+      </c>
+      <c r="R9" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S9" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T9" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-9.4863704202830273E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1208,8 +1548,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O10" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P10" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q10" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-0.6692646176224194</v>
+      </c>
+      <c r="R10" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S10" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T10" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>3.3317578886980566</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1259,8 +1623,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O11" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P11" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q11" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>8.0820056355922765E-2</v>
+      </c>
+      <c r="R11" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S11" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T11" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>0.58370731628029493</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1310,8 +1698,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O12" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P12" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q12" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>1.1093696414893153</v>
+      </c>
+      <c r="R12" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S12" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T12" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.56663961392612339</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1361,8 +1773,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O13" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P13" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q13" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-0.41011519163419391</v>
+      </c>
+      <c r="R13" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S13" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T13" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>7.8030064113994393E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1412,8 +1848,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O14" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P14" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q14" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-0.47128089466247092</v>
+      </c>
+      <c r="R14" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S14" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T14" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>1.5351787566802317</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1463,8 +1923,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O15" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P15" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q15" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>0.24822092780173297</v>
+      </c>
+      <c r="R15" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S15" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T15" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.49977832762557745</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1514,8 +1998,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O16" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P16" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q16" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-0.82700774648481767</v>
+      </c>
+      <c r="R16" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S16" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T16" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.58634998648945968</v>
+      </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -1565,8 +2073,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O17" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P17" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q17" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-0.86402909305456432</v>
+      </c>
+      <c r="R17" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S17" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T17" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>2.4185656191429053E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1616,8 +2148,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O18" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P18" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q18" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>-0.91553705349942904</v>
+      </c>
+      <c r="R18" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S18" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T18" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.7364218931852532</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -1667,8 +2223,32 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O19" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P19" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q19" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>2.5757368904040572</v>
+      </c>
+      <c r="R19" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S19" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T19" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.85602678501414531</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1718,19 +2298,43 @@
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
+      <c r="O20" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
+        <v>14.787894736842103</v>
+      </c>
+      <c r="P20" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
+        <v>6.212631935650708</v>
+      </c>
+      <c r="Q20" s="19">
+        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
+        <v>1.4844119784784868</v>
+      </c>
+      <c r="R20" s="19">
+        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
+        <v>2.3594093157894731</v>
+      </c>
+      <c r="S20" s="19">
+        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
+        <v>2.7289184832585254</v>
+      </c>
+      <c r="T20" s="19">
+        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
+        <v>-0.86058829906316014</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/basedatos.xlsx
+++ b/basedatos.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\universidad\21-22\Econometria\Practica\econometria-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GE73VR\Desktop\3º\econometria-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D12E470-A64B-48F3-A124-FADAA2F3CC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Comunidad </t>
   </si>
@@ -123,19 +124,7 @@
     <t>Npobreza</t>
   </si>
   <si>
-    <t>DesvParo</t>
-  </si>
-  <si>
     <t>Nparo</t>
-  </si>
-  <si>
-    <t>PromParo</t>
-  </si>
-  <si>
-    <t>PromLibros</t>
-  </si>
-  <si>
-    <t>DesvLibros</t>
   </si>
   <si>
     <t>Nlibro</t>
@@ -144,15 +133,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -210,8 +207,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +256,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDCE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -308,92 +341,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Énfasis4" xfId="2" builtinId="42"/>
     <cellStyle name="Celda de comprobación" xfId="1" builtinId="23"/>
+    <cellStyle name="Millares" xfId="4" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{456E6B28-E7C7-48B3-98CF-333997978A72}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="9"/>
         </left>
@@ -406,8 +437,14 @@
         <bottom style="thin">
           <color indexed="9"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="9"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -427,6 +464,21 @@
           <color indexed="9"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -486,10 +538,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Hoja1-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+    <tableStyle name="Hoja1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -504,50 +556,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="B2:T20" headerRowCount="0">
-  <tableColumns count="19">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2" dataDxfId="17"/>
-    <tableColumn id="3" name="Column3" dataDxfId="16"/>
-    <tableColumn id="4" name="Column4" dataDxfId="15"/>
-    <tableColumn id="5" name="Columna1" dataDxfId="14" dataCellStyle="20% - Énfasis4"/>
-    <tableColumn id="6" name="Columna2" dataDxfId="13" dataCellStyle="20% - Énfasis4"/>
-    <tableColumn id="7" name="Columna3" dataDxfId="12" dataCellStyle="20% - Énfasis4"/>
-    <tableColumn id="8" name="Columna4" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B2:N20" headerRowCount="0">
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{30152ED2-A19A-4146-96F7-E18C6964834D}" name="Columna1" dataDxfId="8" dataCellStyle="20% - Énfasis4"/>
+    <tableColumn id="6" xr3:uid="{1093D8BA-9377-4F75-8373-DF8865FD317D}" name="Columna2" dataDxfId="2" dataCellStyle="20% - Énfasis4"/>
+    <tableColumn id="7" xr3:uid="{8ADD97F8-FD73-44E0-9277-12E48F05765E}" name="Columna3" dataDxfId="0" dataCellStyle="Millares"/>
+    <tableColumn id="8" xr3:uid="{5F4284B4-D3CE-462F-8ABE-B7621955F38D}" name="Columna4" dataDxfId="1">
       <calculatedColumnFormula>LOG10(F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Columna5" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{6FE0CD41-E366-41A3-8559-46BF9605C8D6}" name="Columna5" dataDxfId="7">
       <calculatedColumnFormula>LOG10(Table_1[[#This Row],[Column4]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Columna6" dataDxfId="9">
+    <tableColumn id="10" xr3:uid="{8EBA39AD-0440-481C-9A70-D89D10D4722E}" name="Columna6" dataDxfId="6">
       <calculatedColumnFormula>LOG10(Table_1[[#This Row],[Column3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Columna7" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{7170D9F4-75EC-482F-80D5-F071047DC453}" name="Columna7" dataDxfId="5">
       <calculatedColumnFormula>AVERAGE(Table_1[[#All],[Columna1]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Columna8" dataDxfId="7">
+    <tableColumn id="12" xr3:uid="{209F7BF8-D10B-4117-8757-F366C0A36B08}" name="Columna8" dataDxfId="4">
       <calculatedColumnFormula>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Columna9" dataDxfId="6">
+    <tableColumn id="13" xr3:uid="{BE2F74CD-7018-4387-B27A-D334E610BCB0}" name="Columna9" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="Columna10" dataDxfId="5">
-      <calculatedColumnFormula>AVERAGE(Table_1[[#All],[Column4]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="Columna11" dataDxfId="4">
-      <calculatedColumnFormula>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="Columna12" dataDxfId="3">
-      <calculatedColumnFormula>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="Columna13" dataDxfId="2">
-      <calculatedColumnFormula>AVERAGE(Table_1[[#All],[Column3]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="Columna14" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="Columna15" dataDxfId="0">
-      <calculatedColumnFormula>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -560,20 +594,20 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -597,79 +631,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -812,20 +786,15 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T996"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -834,15 +803,10 @@
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="9.25" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="8" customWidth="1"/>
+    <col min="5" max="23" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,38 +831,26 @@
       <c r="H1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="O1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -918,11 +870,11 @@
       <c r="F2" s="13">
         <v>32</v>
       </c>
-      <c r="G2" s="17">
-        <v>20938</v>
-      </c>
-      <c r="H2" s="16">
-        <v>29982</v>
+      <c r="G2" s="16">
+        <v>20.937999999999999</v>
+      </c>
+      <c r="H2" s="25">
+        <v>29.981999999999999</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I20" si="0">LOG10(F2)</f>
@@ -936,44 +888,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.66470288531585986</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>1.1717532177663494</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O2" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P2" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q2" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>1.2976956218658522</v>
-      </c>
-      <c r="R2" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S2" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T2" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>0.82862082472703436</v>
+      <c r="O2" s="21">
+        <v>1.2977000000000001</v>
+      </c>
+      <c r="P2" s="21">
+        <v>0.82862000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -993,11 +927,11 @@
       <c r="F3" s="13">
         <v>14.2</v>
       </c>
-      <c r="G3" s="17">
-        <v>5860</v>
-      </c>
-      <c r="H3" s="16">
-        <v>5947</v>
+      <c r="G3" s="16">
+        <v>5.86</v>
+      </c>
+      <c r="H3" s="25">
+        <v>5.9470000000000001</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
@@ -1011,44 +945,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.22615894339714732</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.81067268642864587</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O3" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P3" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q3" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-0.79159602367897342</v>
-      </c>
-      <c r="R3" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S3" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T3" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.24776090599164324</v>
+      <c r="O3" s="22">
+        <v>-0.79159999999999997</v>
+      </c>
+      <c r="P3" s="22">
+        <v>-0.24779999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1068,11 +984,11 @@
       <c r="F4" s="13">
         <v>14</v>
       </c>
-      <c r="G4" s="17">
-        <v>667</v>
-      </c>
-      <c r="H4" s="16">
-        <v>4322</v>
+      <c r="G4" s="16">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H4" s="25">
+        <v>4.3220000000000001</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
@@ -1086,44 +1002,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-3.8718946949203512E-2</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.8329471347903874</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O4" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P4" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q4" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-0.21535071620204935</v>
-      </c>
-      <c r="R4" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S4" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T4" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.52940544932085765</v>
+      <c r="O4" s="21">
+        <v>-0.21540000000000001</v>
+      </c>
+      <c r="P4" s="21">
+        <v>-0.52939999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1143,11 +1041,11 @@
       <c r="F5" s="13">
         <v>15.4</v>
       </c>
-      <c r="G5" s="17">
-        <v>4438</v>
-      </c>
-      <c r="H5" s="16">
-        <v>15532</v>
+      <c r="G5" s="16">
+        <v>4.4379999999999997</v>
+      </c>
+      <c r="H5" s="25">
+        <v>15.532</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -1161,44 +1059,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-0.13857970350745838</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.67702599625819671</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O5" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P5" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q5" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-1.2278040636964214</v>
-      </c>
-      <c r="R5" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S5" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T5" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.59825910000801141</v>
+      <c r="O5" s="22">
+        <v>-1.2278</v>
+      </c>
+      <c r="P5" s="22">
+        <v>-0.59830000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1218,11 +1098,11 @@
       <c r="F6" s="13">
         <v>32.1</v>
       </c>
-      <c r="G6" s="17">
-        <v>6489</v>
-      </c>
-      <c r="H6" s="16">
-        <v>29768</v>
+      <c r="G6" s="16">
+        <v>6.4889999999999999</v>
+      </c>
+      <c r="H6" s="25">
+        <v>29.768000000000001</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -1236,44 +1116,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-2.4308152238892704E-2</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>1.1828904419472204</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O6" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P6" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q6" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>0.78100639365330271</v>
-      </c>
-      <c r="R6" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S6" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T6" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.51809657359249606</v>
+      <c r="O6" s="21">
+        <v>0.78100999999999998</v>
+      </c>
+      <c r="P6" s="21">
+        <v>-0.5181</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1293,11 +1155,11 @@
       <c r="F7" s="13">
         <v>19.899999999999999</v>
       </c>
-      <c r="G7" s="17">
-        <v>548</v>
-      </c>
-      <c r="H7" s="16">
-        <v>2822</v>
+      <c r="G7" s="16">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H7" s="25">
+        <v>2.8220000000000001</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -1311,44 +1173,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-0.28113807089597298</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.17585090811901266</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O7" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P7" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q7" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-0.93324291490235123</v>
-      </c>
-      <c r="R7" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S7" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T7" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.67278496116790787</v>
+      <c r="O7" s="22">
+        <v>-0.93320000000000003</v>
+      </c>
+      <c r="P7" s="22">
+        <v>-0.67279999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1368,11 +1212,11 @@
       <c r="F8" s="13">
         <v>16.100000000000001</v>
       </c>
-      <c r="G8" s="17">
-        <v>3392</v>
-      </c>
-      <c r="H8" s="16">
-        <v>8736</v>
+      <c r="G8" s="16">
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="H8" s="25">
+        <v>8.7360000000000007</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -1386,44 +1230,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.53293188127903934</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.59906542699210119</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O8" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P8" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q8" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-0.5614198254409839</v>
-      </c>
-      <c r="R8" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S8" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T8" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>0.38549509289642886</v>
+      <c r="O8" s="21">
+        <v>-0.56140000000000001</v>
+      </c>
+      <c r="P8" s="21">
+        <v>0.38550000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1443,11 +1269,11 @@
       <c r="F9" s="13">
         <v>29.9</v>
       </c>
-      <c r="G9" s="17">
-        <v>3599</v>
-      </c>
-      <c r="H9" s="16">
-        <v>8632</v>
+      <c r="G9" s="16">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="H9" s="25">
+        <v>8.6319999999999997</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -1461,44 +1287,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.32232971557783374</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>0.93787150996806334</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O9" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P9" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q9" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>0.30938663083001022</v>
-      </c>
-      <c r="R9" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S9" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T9" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-9.4863704202830273E-2</v>
+      <c r="O9" s="22">
+        <v>0.30939</v>
+      </c>
+      <c r="P9" s="22">
+        <v>-9.4899999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1518,11 +1326,12 @@
       <c r="F10" s="13">
         <v>13.6</v>
       </c>
-      <c r="G10" s="17">
-        <v>32115</v>
-      </c>
-      <c r="H10" s="16">
-        <v>79104</v>
+      <c r="G10" s="16">
+        <v>32.115000000000002</v>
+      </c>
+      <c r="H10" s="26">
+        <f>79104/1000</f>
+        <v>79.103999999999999</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
@@ -1536,44 +1345,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>1.0588625670464942</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.87749603151387046</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O10" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P10" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q10" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-0.6692646176224194</v>
-      </c>
-      <c r="R10" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S10" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T10" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>3.3317578886980566</v>
+      <c r="O10" s="21">
+        <v>-0.66930000000000001</v>
+      </c>
+      <c r="P10" s="21">
+        <v>3.3317600000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1593,11 +1384,12 @@
       <c r="F11" s="13">
         <v>26</v>
       </c>
-      <c r="G11" s="17">
-        <v>17469</v>
-      </c>
-      <c r="H11" s="16">
-        <v>42812</v>
+      <c r="G11" s="16">
+        <v>17.469000000000001</v>
+      </c>
+      <c r="H11" s="26">
+        <f>42812/1000</f>
+        <v>42.811999999999998</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -1611,44 +1403,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.5968497924788736</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>0.50351976691410394</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O11" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P11" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q11" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>8.0820056355922765E-2</v>
-      </c>
-      <c r="R11" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S11" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T11" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>0.58370731628029493</v>
+      <c r="O11" s="22">
+        <v>8.0820000000000003E-2</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0.58370999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1668,11 +1442,11 @@
       <c r="F12" s="13">
         <v>37.6</v>
       </c>
-      <c r="G12" s="17">
-        <v>1312</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1165</v>
+      <c r="G12" s="16">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="H12" s="25">
+        <v>1.165</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -1686,44 +1460,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-8.9858175428170164E-2</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>1.7954377718951122</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O12" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P12" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q12" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>1.1093696414893153</v>
-      </c>
-      <c r="R12" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S12" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T12" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.56663961392612339</v>
+      <c r="O12" s="21">
+        <v>1.10937</v>
+      </c>
+      <c r="P12" s="21">
+        <v>-0.56659999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -1743,11 +1499,11 @@
       <c r="F13" s="13">
         <v>18.8</v>
       </c>
-      <c r="G13" s="17">
-        <v>682</v>
-      </c>
-      <c r="H13" s="16">
-        <v>15443</v>
+      <c r="G13" s="16">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="H13" s="25">
+        <v>15.443</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -1761,44 +1517,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.41032955290705125</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.29836037410859079</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O13" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P13" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q13" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-0.41011519163419391</v>
-      </c>
-      <c r="R13" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S13" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T13" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>7.8030064113994393E-2</v>
+      <c r="O13" s="22">
+        <v>-0.41010000000000002</v>
+      </c>
+      <c r="P13" s="22">
+        <v>7.8030000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1818,11 +1556,12 @@
       <c r="F14" s="13">
         <v>16.100000000000001</v>
       </c>
-      <c r="G14" s="17">
-        <v>16071</v>
-      </c>
-      <c r="H14" s="16">
-        <v>75356</v>
+      <c r="G14" s="16">
+        <v>16.071000000000002</v>
+      </c>
+      <c r="H14" s="26">
+        <f>75356/1000</f>
+        <v>75.355999999999995</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -1836,44 +1575,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.81616086518387998</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.59906542699210119</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O14" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P14" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q14" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-0.47128089466247092</v>
-      </c>
-      <c r="R14" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S14" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T14" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>1.5351787566802317</v>
+      <c r="O14" s="21">
+        <v>-0.4713</v>
+      </c>
+      <c r="P14" s="21">
+        <v>1.53518</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1893,11 +1614,11 @@
       <c r="F15" s="13">
         <v>28.6</v>
       </c>
-      <c r="G15" s="17">
-        <v>8852</v>
-      </c>
-      <c r="H15" s="16">
-        <v>11808</v>
+      <c r="G15" s="16">
+        <v>8.8520000000000003</v>
+      </c>
+      <c r="H15" s="25">
+        <v>11.808</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -1911,44 +1632,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-1.9347421290987312E-3</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>0.7930875956167438</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O15" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P15" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q15" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>0.24822092780173297</v>
-      </c>
-      <c r="R15" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S15" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T15" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.49977832762557745</v>
+      <c r="O15" s="22">
+        <v>0.24822</v>
+      </c>
+      <c r="P15" s="22">
+        <v>-0.49980000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1968,11 +1671,11 @@
       <c r="F16" s="13">
         <v>8.9</v>
       </c>
-      <c r="G16" s="17">
-        <v>1709</v>
-      </c>
-      <c r="H16" s="16">
-        <v>4174</v>
+      <c r="G16" s="16">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="H16" s="25">
+        <v>4.1740000000000004</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
@@ -1986,44 +1689,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-0.11958202441083296</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-1.4009455680147962</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O16" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P16" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q16" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-0.82700774648481767</v>
-      </c>
-      <c r="R16" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S16" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T16" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.58634998648945968</v>
+      <c r="O16" s="21">
+        <v>-0.82699999999999996</v>
+      </c>
+      <c r="P16" s="21">
+        <v>-0.58630000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -2043,11 +1728,11 @@
       <c r="F17" s="13">
         <v>8.6</v>
       </c>
-      <c r="G17" s="17">
-        <v>2327</v>
-      </c>
-      <c r="H17" s="16">
-        <v>8847</v>
+      <c r="G17" s="16">
+        <v>2.327</v>
+      </c>
+      <c r="H17" s="25">
+        <v>8.8469999999999995</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -2061,44 +1746,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>0.38478516384002248</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-1.4343572405574085</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O17" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P17" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q17" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-0.86402909305456432</v>
-      </c>
-      <c r="R17" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S17" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T17" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>2.4185656191429053E-2</v>
+      <c r="O17" s="22">
+        <v>-0.86399999999999999</v>
+      </c>
+      <c r="P17" s="22">
+        <v>2.419E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -2118,11 +1785,11 @@
       <c r="F18" s="13">
         <v>16.600000000000001</v>
       </c>
-      <c r="G18" s="17">
-        <v>1249</v>
-      </c>
-      <c r="H18" s="16">
-        <v>1771</v>
+      <c r="G18" s="16">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="H18" s="25">
+        <v>1.7709999999999999</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -2136,44 +1803,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-0.45621247637876733</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-0.54337930608774743</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O18" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P18" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q18" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>-0.91553705349942904</v>
-      </c>
-      <c r="R18" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S18" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T18" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.7364218931852532</v>
+      <c r="O18" s="21">
+        <v>-0.91549999999999998</v>
+      </c>
+      <c r="P18" s="21">
+        <v>-0.73640000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -2193,10 +1842,10 @@
       <c r="F19" s="13">
         <v>38.299999999999997</v>
       </c>
-      <c r="G19" s="17">
-        <v>598</v>
-      </c>
-      <c r="H19" s="16">
+      <c r="G19" s="16">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="H19" s="25">
         <v>0</v>
       </c>
       <c r="I19">
@@ -2211,44 +1860,26 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-1.6311183438236661</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>1.8733983411612072</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O19" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P19" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q19" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>2.5757368904040572</v>
-      </c>
-      <c r="R19" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S19" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T19" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.85602678501414531</v>
+      <c r="O19" s="22">
+        <v>2.5757400000000001</v>
+      </c>
+      <c r="P19" s="22">
+        <v>-0.85599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -2268,11 +1899,11 @@
       <c r="F20" s="13">
         <v>21.4</v>
       </c>
-      <c r="G20" s="17">
-        <v>1780</v>
-      </c>
-      <c r="H20" s="16">
-        <v>50</v>
+      <c r="G20" s="16">
+        <v>1.78</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0.05</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
@@ -2286,55 +1917,39 @@
         <f>LOG10(Table_1[[#This Row],[Column3]])</f>
         <v>-1.9612209304444617</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="18">
         <f>AVERAGE(Table_1[[#All],[Columna1]])</f>
         <v>21.478947368421057</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="18">
         <f>(Table_1[[#This Row],[Columna1]]-Table_1[[#This Row],[Columna7]])/Table_1[[#This Row],[Columna9]]</f>
         <v>-8.7925454059512454E-3</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="18">
         <f>_xlfn.STDEV.P(Table_1[[#All],[Columna1]])</f>
         <v>8.978898006898298</v>
       </c>
-      <c r="O20" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column4]])</f>
-        <v>14.787894736842103</v>
-      </c>
-      <c r="P20" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column4]])</f>
-        <v>6.212631935650708</v>
-      </c>
-      <c r="Q20" s="19">
-        <f>(Table_1[[#All],[Column4]]-Table_1[[#All],[Columna10]])/Table_1[[#All],[Columna11]]</f>
-        <v>1.4844119784784868</v>
-      </c>
-      <c r="R20" s="19">
-        <f>AVERAGE(Table_1[[#All],[Column3]])</f>
-        <v>2.3594093157894731</v>
-      </c>
-      <c r="S20" s="19">
-        <f>_xlfn.STDEV.P(Table_1[[#All],[Column3]])</f>
-        <v>2.7289184832585254</v>
-      </c>
-      <c r="T20" s="19">
-        <f>(Table_1[[#All],[Column3]]-Table_1[[#All],[Columna13]])/Table_1[[#All],[Columna14]]</f>
-        <v>-0.86058829906316014</v>
+      <c r="O20" s="21">
+        <v>1.48441</v>
+      </c>
+      <c r="P20" s="21">
+        <v>-0.86060000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="24"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
